--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3770.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3770.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.390935487158446</v>
+        <v>0.8019073605537415</v>
       </c>
       <c r="B1">
-        <v>2.690612033432302</v>
+        <v>0.8509652614593506</v>
       </c>
       <c r="C1">
-        <v>3.392387012287619</v>
+        <v>5.025641441345215</v>
       </c>
       <c r="D1">
-        <v>3.977144385894356</v>
+        <v>1.793330311775208</v>
       </c>
       <c r="E1">
-        <v>1.490056137173398</v>
+        <v>0.7575253248214722</v>
       </c>
     </row>
   </sheetData>
